--- a/output_data.xlsx
+++ b/output_data.xlsx
@@ -719,12 +719,12 @@
       <c r="AE2" t="n">
         <v>0</v>
       </c>
-      <c r="AF2" t="n">
-        <v>28.2051282051282</v>
+      <c r="AF2" t="b">
+        <v>0</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Couldn't Verify Your aadhar card .</t>
+          <t>Fields missing .Couldn't Verify Your aadhar card.</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -851,8 +851,8 @@
       <c r="AE3" t="n">
         <v>95.09999999999999</v>
       </c>
-      <c r="AF3" t="n">
-        <v>96.73333333333333</v>
+      <c r="AF3" t="b">
+        <v>1</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
@@ -979,8 +979,8 @@
       <c r="AE4" t="n">
         <v>98.33</v>
       </c>
-      <c r="AF4" t="n">
-        <v>98.88666666666666</v>
+      <c r="AF4" t="b">
+        <v>1</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
       <c r="AE5" t="n">
         <v>0</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5" t="b">
         <v>0</v>
       </c>
       <c r="AG5" t="inlineStr">

--- a/output_data.xlsx
+++ b/output_data.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>Fields missing .Couldn't Verify Your aadhar card.</t>
+          <t>Couldn't Verify Your aadhar card.Couldn't Verify : Address.</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>Aadhar Card Verified Successfully .</t>
+          <t>Aadhar Card Verified Successfully.</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>Aadhar Card Verified Successfully .</t>
+          <t>Aadhar Card Verified Successfully.</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">

--- a/output_data.xlsx
+++ b/output_data.xlsx
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>22.22</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>63.16</v>
+        <v>50.53</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -805,7 +805,7 @@
         </is>
       </c>
       <c r="S3" t="n">
-        <v>66.67</v>
+        <v>33.33</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -925,7 +925,7 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>27.27</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -977,7 +977,7 @@
         <v>1</v>
       </c>
       <c r="AE4" t="n">
-        <v>98.33</v>
+        <v>92.67</v>
       </c>
       <c r="AF4" t="b">
         <v>1</v>
